--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcarvalho-my.sharepoint.com/personal/guilhermecaique_dcarvalho_com_br/Documents/Documentos/baileyswhats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcarvalho-my.sharepoint.com/personal/guilhermecaique_dcarvalho_com_br/Documents/Documentos/whatsapp-cens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{41F2BEB8-87FC-4988-B241-5E3BA8DA0EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDBCC56-44AE-4ACD-B4F3-D30FBA8C9E99}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{41F2BEB8-87FC-4988-B241-5E3BA8DA0EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21CE74E-595A-45A3-B9DF-63BD74906294}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{BC677229-3BE2-4AEA-965C-6459CE30FC8D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nome</t>
   </si>
@@ -57,12 +57,6 @@
   </si>
   <si>
     <t>551821024046</t>
-  </si>
-  <si>
-    <t>Joao</t>
-  </si>
-  <si>
-    <t>5518991942892</t>
   </si>
 </sst>
 </file>
@@ -456,7 +450,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -490,12 +484,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{30A277D8-14BE-4E4B-B50B-B443D3AA5400}"/>

--- a/contatos.xlsx
+++ b/contatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dcarvalho-my.sharepoint.com/personal/guilhermecaique_dcarvalho_com_br/Documents/Documentos/whatsapp-cens/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{41F2BEB8-87FC-4988-B241-5E3BA8DA0EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21CE74E-595A-45A3-B9DF-63BD74906294}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5FF689B1-BD99-44ED-82AB-A198BD384DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B223D925-7136-48ED-9A2D-B8AD7DE1445B}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="12456" xr2:uid="{BC677229-3BE2-4AEA-965C-6459CE30FC8D}"/>
   </bookViews>
@@ -39,24 +39,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Guilherme (eu)</t>
-  </si>
-  <si>
     <t>Numero</t>
   </si>
   <si>
-    <t>Ramal</t>
-  </si>
-  <si>
     <t>5518997773664</t>
   </si>
   <si>
-    <t>551821024046</t>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Glauber</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>5518996884909</t>
+  </si>
+  <si>
+    <t>5518997790997</t>
   </si>
 </sst>
 </file>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A277D8-14BE-4E4B-B50B-B443D3AA5400}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,35 +470,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{30A277D8-14BE-4E4B-B50B-B443D3AA5400}"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="+5518997773664@s.whatsapp.ne" xr:uid="{F4A5B87D-EB39-45A5-80B2-60905F34173F}"/>
-    <hyperlink ref="B3" r:id="rId2" display="+551821024046@s.whatsapp.ne" xr:uid="{ECCD64DE-9E45-4C2E-BAD9-F0D18831B5A8}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>